--- a/biology/Botanique/Inocybaceae/Inocybaceae.xlsx
+++ b/biology/Botanique/Inocybaceae/Inocybaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Inocybaceae (Inocybacées) est une famille de champignons du clade VI de l'ordre des Agaricales. 
-Selon une estimation de 2008[1], la famille des Inocybaceae contient 13 genres et 821 espèces. Les membres de cette famille ont une distribution très répandue dans les zones tropicales et tempérées. Les principaux genres connu dans l'hémisphère nord sont Inocybe, et Naucoria[2].
+Selon une estimation de 2008, la famille des Inocybaceae contient 13 genres et 821 espèces. Les membres de cette famille ont une distribution très répandue dans les zones tropicales et tempérées. Les principaux genres connu dans l'hémisphère nord sont Inocybe, et Naucoria.
 Le genre type des Inocybaceae, Inocybe, était auparavant placé dans la famille des Cortinariaceae. Malgré cela, Jülich a déplacé le genre dans une nouvelle famille, les Inocybaceae. Plus tard[Quand ?], la famille des Cortinariaceae s'est avérée être polyphylétique[réf. nécessaire]. En outre, les analyses phylogénétiques des régions RPB1, RPB2 et nLSU- ADNr d'une variété de taxons du genre Inocybe[réf. nécessaire] appuierait la décision de Jülich qui élève le genre Inocybe au niveau d'une famille. Des études phylogénétiques[réf. nécessaire] ont également déplacé Tubaria dans le clade des Tubarieae.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Phylogramme des Inocybaceae</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Agaricales
@@ -563,21 +577,215 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>Episphaeria</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Episphaeria fraxinicola</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Inocybaceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inocybaceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principaux genres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Episphaeria</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Inocybe</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Près de 200 espèces dans l'hémisphère nord:
+vide </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Inocybaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inocybaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principaux genres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Episphaeria</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Phaeomyces</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2 espèces</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Inocybaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inocybaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principaux genres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Episphaeria</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Tubariomyces</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 espèces méditerranéennes</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Inocybaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inocybaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Principaux genres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Episphaeria</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Chromocyphella</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Chromocyphella muscicola ((Fr.) Donk 1959)
+quatre autres espèces hors europe</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Inocybaceae</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inocybaceae</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Principaux genres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Episphaeria</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Flammulaster ou Naucories</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
           <t>Europe
-Episphaeria
-Episphaeria fraxinicola
-Inocybe
-Près de 200 espèces dans l'hémisphère nord:
-vide 
-Phaeomyces
-2 espèces
-Tubariomyces
-2 espèces méditerranéennes
-Chromocyphella
-Chromocyphella muscicola ((Fr.) Donk 1959)
-quatre autres espèces hors europe
-Flammulaster ou Naucories
-Europe
 Flammulaster carpophiloides ((Kühner) Watling 1967)
 Flammulaster carpophilus ((Fr.) Earle), Naucorie des faînes
 Flammulaster denticulatus (Orton 1984)
@@ -589,13 +797,89 @@
 Flammulaster muricatus ((Fr.) Watling 1967)
 Flammulaster speireoides ((Romagn.) Watling 1967
 Canada
-Flammulaster erinaceella (Québec)
-Phaeomarasmius
-Phaeomarasmius erinaceus ((Fr. : Fr.) Kühner 1937), Naucorie hérisson
+Flammulaster erinaceella (Québec)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Inocybaceae</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inocybaceae</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Principaux genres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Episphaeria</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Phaeomarasmius</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Phaeomarasmius erinaceus ((Fr. : Fr.) Kühner 1937), Naucorie hérisson
 Phaeomarasmius rimulincola ((Lasch ex Rabenh.) Scherff. 1914)
-20 espèces hors europe
-Tubaria ou Tubaires
-Tubaria autochtona ((Berk. &amp; Br.) Saccardo 1887), Tubaire de l'aubépine
+20 espèces hors europe</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Inocybaceae</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inocybaceae</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Principaux genres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Episphaeria</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Tubaria ou Tubaires</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Tubaria autochtona ((Berk. &amp; Br.) Saccardo 1887), Tubaire de l'aubépine
 Tubaria confragosa ((Fr.) Kühner ex Harmaja 1978), Tubaire annelée
 Tubaria conspersa ((Pers. : Fr) Fayod 1889), Tubaire voilée, Tubaire floconneuse
 Tubaria furfuracea ((Pers. : Fr.) Gillet 1876), Tubaire furfuracée, Tubaire commune
@@ -604,12 +888,47 @@
 Tubaria minutalis (Romagn. 1937)
 Tubaria pallidospora (Lge. 1940)
 Tubaria romagnesiana (Arnolds 1982) Tubaire de Romagnesi
-Tubaria segestria ((Fr. : Fr.) Ri.)
-Australie
-Auritella
-Amérique du Sud
-Phaeosolenia
-Phaeosolenia betulae
+Tubaria segestria ((Fr. : Fr.) Ri.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Inocybaceae</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Inocybaceae</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Principaux genres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Amérique du Sud</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Phaeosolenia</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Phaeosolenia betulae
 Phaeosolenia brenckleana
 Phaeosolenia granulosa
 Phaeosolenia inconspicua
